--- a/outlay/utils/output.xlsx
+++ b/outlay/utils/output.xlsx
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e3740cf1-e76f-4207-b5d0-ab5b136dea6e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5b8e362a-8b73-4aab-9ef6-bff136f7076b}">
   <dimension ref="A1:ZZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -18460,7 +18460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89fc8dc8-6ea5-4f19-bfd1-1dae7ea39bd8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b1a90402-0ed5-4e89-be1f-a7f6ed240240}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/outlay/utils/output.xlsx
+++ b/outlay/utils/output.xlsx
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5b8e362a-8b73-4aab-9ef6-bff136f7076b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dd2342c1-b806-4773-a9a8-258cb7c5bf74}">
   <dimension ref="A1:ZZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -18460,7 +18460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b1a90402-0ed5-4e89-be1f-a7f6ed240240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bd0406c3-56a5-4bca-b90a-6e8e6366b3c0}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/outlay/utils/output.xlsx
+++ b/outlay/utils/output.xlsx
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dd2342c1-b806-4773-a9a8-258cb7c5bf74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ae60199e-137f-4c9a-9e19-9608351fcbd0}">
   <dimension ref="A1:ZZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -18460,7 +18460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bd0406c3-56a5-4bca-b90a-6e8e6366b3c0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6e5d7a70-bf98-4d03-9a72-385a86d7b297}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/outlay/utils/output.xlsx
+++ b/outlay/utils/output.xlsx
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ae60199e-137f-4c9a-9e19-9608351fcbd0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e84d0204-829a-466c-95c7-d6a089c4fe2f}">
   <dimension ref="A1:ZZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -18460,7 +18460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6e5d7a70-bf98-4d03-9a72-385a86d7b297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f58401e3-b7fe-46dd-997f-20ea88f10fd9}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
